--- a/biology/Botanique/Polytrichaceae/Polytrichaceae.xlsx
+++ b/biology/Botanique/Polytrichaceae/Polytrichaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Polytrichaceae sont une famille de mousses acrocarpes contenant 35 genres d'après Tropicos[2]. Elle est répartie dans le monde entier[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Polytrichaceae sont une famille de mousses acrocarpes contenant 35 genres d'après Tropicos. Elle est répartie dans le monde entier.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une famille de mousses acrocarpes non ramifiées, et de taille variable. Les feuilles sont caractéristiques, composées le plus souvent d'une très large nervure et de quelques rangées de cellules de limbe[4]. La nervure est couverte de lamelles chlorophylliennes disposées dans le sens de la feuille. Ces lamelles permettent d'augmenter par 6 la surface de la feuille au contact de l'air, facilitant ainsi les échanges de CO2 avec l'air ambiant. En effet, dans les contextes ensoleillés le facteur limitant la photosynthèse pour les bryophytes est l'accès au CO2. Ainsi les Polytrichaceae sont mieux équipées pour effectuer la photosynthèse dans les habitats lumineux[5].
-Ce système se retrouve chez d'autres espèces de la famille des Potiaceae, comme Pterygoneurum. Chez cette dernière les lamelles sont peu nombreuses et la capsule ne présente pas de péristome. Les espèces du genre Aloina ou Crossidium présentent des filaments sur la feuille lui donnant un aspect semblable à celles des Polytrichaceae. Mais ce sont bien des filaments isolés et non pas des lamelles[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une famille de mousses acrocarpes non ramifiées, et de taille variable. Les feuilles sont caractéristiques, composées le plus souvent d'une très large nervure et de quelques rangées de cellules de limbe. La nervure est couverte de lamelles chlorophylliennes disposées dans le sens de la feuille. Ces lamelles permettent d'augmenter par 6 la surface de la feuille au contact de l'air, facilitant ainsi les échanges de CO2 avec l'air ambiant. En effet, dans les contextes ensoleillés le facteur limitant la photosynthèse pour les bryophytes est l'accès au CO2. Ainsi les Polytrichaceae sont mieux équipées pour effectuer la photosynthèse dans les habitats lumineux.
+Ce système se retrouve chez d'autres espèces de la famille des Potiaceae, comme Pterygoneurum. Chez cette dernière les lamelles sont peu nombreuses et la capsule ne présente pas de péristome. Les espèces du genre Aloina ou Crossidium présentent des filaments sur la feuille lui donnant un aspect semblable à celles des Polytrichaceae. Mais ce sont bien des filaments isolés et non pas des lamelles.
 			Feuille de Polytrichum formosum, laissant apparaitre la base transparente, composée d'un limbe unistratifié, puis les lamelles rendant opaque la majorité de la feuille.
 			Section transversale de feuilles de Polytrichum juniperinum. On observe la nervure, sur laquelle sont disposées les lamelles. Le limbe, de chaque côté de la nervure est ici rabattu par dessus les lamelles.
 			Vue rapprochée d'une coupe transversale d'une feuille de Polytrichum.On observe les rangées de lamelles, et les chloroplastes à l'intérieur des cellules.
@@ -547,9 +561,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">D'après Tropicos[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'après Tropicos :
 Bartramiopsis Kindb. 1894
 Callibryon Zenker &amp; D. Dietr. 1822
 Catharinea Ehrh. ex D. Mohr 1803
@@ -557,7 +573,7 @@
 Dawsonia R. Br. 1811
 Dendroligotrichum (Müll. Hal.) Broth. 1905
 Itatiella G.L. Sm. 1971
-Lyellia R. Br. 1818 [1819]
+Lyellia R. Br. 1818 
 Microdendron Broth. 1929
 Notoligotrichum G.L. Sm. 1971
 Polytrichadelphus (Müll. Hal.) Mitt. 1859
